--- a/biology/Botanique/Parc_de_la_Butte-du-Chapeau-Rouge/Parc_de_la_Butte-du-Chapeau-Rouge.xlsx
+++ b/biology/Botanique/Parc_de_la_Butte-du-Chapeau-Rouge/Parc_de_la_Butte-du-Chapeau-Rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Butte-du-Chapeau-Rouge est un jardin public situé dans le quartier d'Amérique du 19e arrondissement de Paris, près du boulevard périphérique.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce site est desservi par la ligne 7 bis à la station de métro Pré-Saint-Gervais et par la ligne 3b du tramway d'Île-de-France à la station Butte du Chapeau-Rouge.
 Pour les piétons, l'entrée principale fait face à la fontaine monumentale, entre les 5 et 11, boulevard d'Algérie. Une autre entrée existe par le 5, avenue Debidour.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom évoque une ancienne guinguette du Pré-Saint-Gervais.
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois, la butte du Chapeau-Rouge constituait une parcelle de la plaine du Pré-Saint-Gervais, animée d’une guinguette qui lui a laissé son nom. Ici, au début des années 1910, les mouvements politiques et les syndicats de gauche se rassemblaient pour défendre le pacifisme contre le militarisme.
 Au printemps 1913, alors que la guerre devenait imminente, le rassemblement en souvenir des communards qui devait se tenir comme chaque année au Père-Lachaise fut annulé par le gouvernement de Louis Barthou. Ce dernier redoutait que la manifestation ne se retournât contre lui. Le 25 mai, cent cinquante mille personnes répondirent alors à l’appel de la Section française de l’Internationale ouvrière (SFIO), à manifester à la place au Pré-Saint-Gervais.
@@ -613,10 +631,12 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hêtre pourpre, classé arbre remarquable de Paris, hauteur 21 m, circonférence 276 cm[1].
-Frêne commun, classé arbre remarquable de Paris, hauteur 24 m, circonférence 385 cm[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hêtre pourpre, classé arbre remarquable de Paris, hauteur 21 m, circonférence 276 cm.
+Frêne commun, classé arbre remarquable de Paris, hauteur 24 m, circonférence 385 cm.</t>
         </is>
       </c>
     </row>
@@ -644,11 +664,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Fontaine monumentale surmontée d'une statue, Ève, de Raymond Couvègnes (1938).
 Statue L'Enfance de Bacchus, de Pierre Traverse (1938).
-Monument aux victimes d'Afrique du Nord, œuvre d'Eugène Dodeigne, inauguré le 11 novembre 1996 par le président de la République Jacques Chirac[2].
+Monument aux victimes d'Afrique du Nord, œuvre d'Eugène Dodeigne, inauguré le 11 novembre 1996 par le président de la République Jacques Chirac.
 			Fontaine et sculpture Ève.
 			L'Enfance de Bacchus.
 </t>
